--- a/MainApp/!Data/Book1.xlsx
+++ b/MainApp/!Data/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\SDK\GitHub\SqlOverExcel\MainApp\!Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5598" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5596" uniqueCount="3">
   <si>
     <t>X1</t>
   </si>
@@ -352,7 +352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1866"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1832" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A1842" workbookViewId="0">
       <selection activeCell="A1866" sqref="A1866"/>
     </sheetView>
   </sheetViews>
@@ -20863,8 +20863,8 @@
       </c>
     </row>
     <row r="1865" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1865" t="s">
-        <v>0</v>
+      <c r="A1865">
+        <v>1865</v>
       </c>
       <c r="B1865" t="s">
         <v>1</v>
@@ -20874,8 +20874,8 @@
       </c>
     </row>
     <row r="1866" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1866" t="s">
-        <v>0</v>
+      <c r="A1866">
+        <v>1866</v>
       </c>
       <c r="B1866" t="s">
         <v>1</v>
